--- a/single_page_car.xlsx
+++ b/single_page_car.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1105,6 +1105,5766 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz E-Class E 400 4MATIC</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>52,184</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Westwood</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">422 </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>$59,575</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLE 400 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>35,057</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Ontario</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,906 </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>$50,988</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLC 300 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>23,727</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Chicago</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,102 </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>$43,215</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLE 450 AWD 4MATIC</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>15,831</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Fletcher Jones Motorcars</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4,990 </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>$75,893</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLC 300 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>12,364</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Arlington</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2,229 </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>$44,995</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz C-Class C 300</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>11,408</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Walnut Creek</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">813 </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>$35,588</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz AMG GLE 43 Coupe 4MATIC</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>36,864</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Edison</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2,237 </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>$70,858</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz GLE 350 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>16,892</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Alexandria</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">991 </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>$48,884</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz GLE 350 Base</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>29,819</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Calabasas</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">878 </t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>$42,499</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz E-Class E 450</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>13,536</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Fort Lauderdale</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">869 </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>$59,890</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz E-Class E 300</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>16,886</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Nanuet</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">233 </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>$47,944</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLC 300 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>11,039</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Easton</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87 </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>$51,325</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLE 350 Base</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>29,602</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Houston North</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,095 </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>$58,891</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLE 350 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>16,567</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of South Orlando</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,086 </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>$73,295</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLC 300 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>28,047</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Euro Motorcars Inc</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">560 </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>$45,881</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz S-Class S 560 4MATIC</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>35,011</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Edison</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2,237 </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>$79,995</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz AMG C 43 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>34,884</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz Manhattan, Inc.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">430 </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>$59,901</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz C-Class C 300 4MATIC</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>23,327</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Union</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">859 </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>$39,995</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLC 300 Base</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>22,958</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Fletcher Jones Motorcars</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4,990 </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>$39,892</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz C-Class C 300 4MATIC</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>35,768</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Nashville</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">809 </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>$35,998</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLE 450 AWD 4MATIC</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>15,312</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Music City</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">115 </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>$77,981</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz S-Class S 450</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>31,991</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>House of Imports</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">986 </t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>$62,980</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLC 300 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>17,964</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Euro Motorcars Inc</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">560 </t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>$45,881</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLS 450 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>31,559</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of San Jose</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">536 </t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>$65,990</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz E-Class E 400 4MATIC</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>15,374</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Westwood</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">422 </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>$56,406</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLC 300 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>25,791</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Mercedes Benz of Hoffman Estates</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,048 </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>$43,999</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz S-Class S 450 4MATIC</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of White Plains</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,632 </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>$72,845</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLC 300 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>12,516</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Easton</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87 </t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>$50,467</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLE 450 AWD 4MATIC</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>24,155</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Autohaus on Edens</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,561 </t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>$75,978</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz S-Class S 450 4MATIC</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>12,585</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Edison</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2,237 </t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>$75,904</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz E-Class E 400</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>55,919</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Clearwater</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">335 </t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>$46,938</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz AMG GLE 43 4MATIC Coupe</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>35,827</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz Porsche of Melbourne</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">175 </t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>$73,990</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLC 300 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>13,993</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Fletcher Jones Motorcars of Fremont</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,160 </t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>$52,888</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2021 Mercedes-Benz GLB 250 Base</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>10,727</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>House of Imports</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">986 </t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>$41,980</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz AMG G 63 Base</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>19,501</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of South Charlotte</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,143 </t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>$279,824</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz E-Class E 300</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>16,176</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Fredericksburg</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">266 </t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>$49,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2021 Mercedes-Benz C-Class C 300</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>18,612</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Atlanta Northeast</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,732 </t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>$43,888</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLS 450 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>33,298</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Plaza Motor Company</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50 </t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>$61,500</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2021 Mercedes-Benz AMG GLC 43 4MATIC</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>12,087</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Birmingham</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">771 </t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>$63,984</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz GLE 350 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>15,670</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Euro Motorcars Devon</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">297 </t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>$51,944</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLE 400 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>27,856</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>House of Imports</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">986 </t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>$48,580</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz GLE 350 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>38,406</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Plaza Motor Company</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50 </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>$43,500</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLB 250 Base</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>11,869</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Arcadia</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,095 </t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>$46,423</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz C-Class C 300 4MATIC</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>48,346</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Easton</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87 </t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>$33,389</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2016 Mercedes-Benz GLA-Class GLA 250</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>48,582</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Clearwater</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">335 </t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>$26,846</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz AMG C 63 S</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>9,166</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Tysons Corner</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">215 </t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>$94,995</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLC 300 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>17,650</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Alexandria</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">991 </t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>$46,885</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz AMG GLE 43 4MATIC Coupe</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>46,326</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of South Orlando</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,086 </t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>$79,991</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz C-Class C 300 4MATIC</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>18,311</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Benzel-Busch Motor Car</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4,283 </t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>$44,954</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2021 Mercedes-Benz GLB 250 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>11,582</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Fletcher Jones Motorcars of Fremont</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,160 </t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>$50,350</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz C-Class C 300</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>34,519</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of San Jose</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">536 </t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>$32,352</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLC 350e Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>19,020</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Stevens Creek</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,338 </t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>$45,999</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz AMG C 43 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>16,512</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of South Charlotte</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,143 </t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>$60,924</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2021 Mercedes-Benz C-Class C 300</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>15,034</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Buckhead</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">915 </t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>$50,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz E-Class E 350</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>18,115</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>House of Imports</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">986 </t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>$52,480</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz E-Class E 300</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>24,865</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of White Plains</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,632 </t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>$46,345</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLC 300 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>19,810</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Massapequa</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,596 </t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>$44,895</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz GLS 450 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>60,191</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Westmont</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">623 </t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>$53,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2017 Mercedes-Benz C-Class C 300</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>20,652</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Kansas City</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9 </t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>$35,888</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz E-Class E 300</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>36,633</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Rockville Centre</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,275 </t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>$46,554</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLB 250 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>16,073</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Benzel-Busch Motor Car</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4,283 </t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>$40,977</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz AMG GLE 43 Coupe 4MATIC</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>30,122</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Ray Catena Mercedes Benz Freehold</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">729 </t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>$70,900</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLA 250 Base</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>17,848</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Plano</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,033 </t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>$36,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz GLE 350 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>47,888</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Walnut Creek</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">813 </t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>$38,988</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz C-Class C 300 4MATIC</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>11,198</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Columbia</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">851 </t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>$39,999</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz GLS 450 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>32,835</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of St. Charles</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">545 </t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>$60,893</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2021 Mercedes-Benz GLB 250 Base</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>11,588</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Fletcher Jones Motorcars of Fremont</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,160 </t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>$45,950</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz CLA 250 4MATIC</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>17,744</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Hanover</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">363 </t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>$36,530</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLC 300 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>23,735</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Easton</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87 </t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>$48,439</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz E-Class E 300</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>14,468</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Fairfield</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">257 </t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>$47,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz E-Class E 400 4MATIC</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>37,809</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Catonsville</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">373 </t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>$52,013</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz AMG C 43 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>30,192</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Stevens Creek</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,338 </t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>$53,381</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz A-Class A 220</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>17,043</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Stevens Creek</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,338 </t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>$36,495</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLC 300 4MATIC</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>33,534</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Hanover</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">363 </t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>$42,053</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz GLS 450 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>54,802</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of St. Charles</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">545 </t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>$51,893</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2021 Mercedes-Benz GLC 300 4MATIC</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>11,463</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Hanover</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">363 </t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>$51,788</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz GLE 350 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>12,063</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of South Orlando</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,086 </t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>$57,745</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz C-Class C 300</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>37,448</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>W.I. Simonson Inc.</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">768 </t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>$39,999</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2021 Mercedes-Benz GLC 300 Base</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>12,961</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Calabasas</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">878 </t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>$47,235</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz GLE 350 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>39,585</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Oakland</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">62 </t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>$41,986</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2017 Mercedes-Benz S-Class S 550 4MATIC</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>13,679</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Clearwater</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">335 </t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>$68,620</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLB 250 Base</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>11,672</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Ontario</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,906 </t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>$46,488</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz AMG E 63 S 4MATIC</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>11,336</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Euro Motorcars Inc</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">560 </t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>$106,881</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz A-Class A 220</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>10,858</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of South Orlando</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,086 </t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>$55,295</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz C-Class C 300 4MATIC</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>20,089</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Nanuet</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">233 </t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>$38,439</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz G-Class G 550 4MATIC</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>24,215</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Ontario</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,906 </t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>$191,988</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLA 250 Base</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>18,151</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Fletcher Jones Motorcars</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4,990 </t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>$32,891</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLC 300 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>36,233</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Autohaus on Edens</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,561 </t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>$49,993</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLA 250 Base</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>10,539</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Clearwater</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">335 </t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>$35,497</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2021 Mercedes-Benz GLC 300 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>11,336</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Portland</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">931 </t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>$55,767</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz AMG GT Base</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2,605</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Euro Motorcars Devon</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">297 </t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>$129,989</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz E-Class E 400</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>40,808</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz Of Tampa</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3,454 </t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>$61,495</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz GLE 350 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>48,754</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Stevens Creek</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,338 </t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>$42,381</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2016 Mercedes-Benz S-Class S 550 4MATIC</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>20,539</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Westmont</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">623 </t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>$65,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz GLS 450 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>37,505</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of South Bay</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,020 </t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>$55,991</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLC 300 Base</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>21,520</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>House of Imports</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">986 </t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>$45,980</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLE 450 AWD 4MATIC</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>21,414</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Fletcher Jones Motorcars</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4,990 </t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>$74,892</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz E-Class E 350</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>17,836</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Plano</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,033 </t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>$51,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz AMG G 63 Base</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>15,060</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Mercedes Benz of Hoffman Estates</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,048 </t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>$254,999</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz GLE 350 Base</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>23,224</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>W.I. Simonson Inc.</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">768 </t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>$42,998</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz AMG G 63 Base</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>39,920</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz Manhattan, Inc.</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">430 </t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>$147,902</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2016 Mercedes-Benz GLE-Class GLE 350 4MATIC</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>24,104</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Princeton</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3,280 </t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>$39,999</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLB 250 Base</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>18,850</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Scottsdale</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">446 </t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>$41,991</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz CLA 250 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>31,339</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of North Haven</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,027 </t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>$33,485</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz AMG G 63 Base</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>12,738</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Mercedes Benz of Hoffman Estates</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,048 </t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>$254,999</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz C-Class C 300</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>15,356</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Buckhead</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">915 </t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>$62,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLE 400 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>31,607</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Pleasanton</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50 </t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>$46,804</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz E-Class E 300</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>51,210</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz Of Henderson</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,589 </t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>$45,991</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz AMG GLE 43 Coupe 4MATIC</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>49,224</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Catonsville</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">373 </t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>$66,890</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz GLE 350 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>32,176</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Silver Spring</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,508 </t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>$47,900</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLS 450 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>14,443</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Autohaus on Edens</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,561 </t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>$70,571</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2017 Mercedes-Benz GLE 350 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>25,118</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Naperville</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">492 </t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>$40,750</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz C-Class C 300 4MATIC</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>17,424</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Arlington</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2,229 </t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>$40,995</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLE 400 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>30,039</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz Manhattan, Inc.</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">430 </t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>$48,901</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz CLA 250 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>10,191</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Rochester</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87 </t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>$37,941</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2021 Mercedes-Benz AMG G 63 Base</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1,758</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Orlando</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">658 </t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>$280,991</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz GLE 350 4MATIC</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>34,337</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Westwood</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">422 </t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>$46,213</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz GLE 350 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>30,011</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Euro Motorcars Inc</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">560 </t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>$47,881</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2021 Mercedes-Benz GLB 250 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>11,900</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Fletcher Jones Motorcars of Fremont</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,160 </t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>$46,788</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz CLA 250 Base</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>17,149</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Fletcher Jones Motorcars of Fremont</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,160 </t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>$36,388</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLE 350 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>20,451</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Fletcher Jones Motorcars of Fremont</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,160 </t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>$68,988</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLE 350 Base</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>16,093</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Plano</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,033 </t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>$64,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz CLA 250 Base</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>31,764</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Salt Lake City</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">125 </t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>$35,298</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz GLE 350 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>20,036</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz Manhattan, Inc.</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">430 </t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>$44,901</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz CLA 250 Base</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>24,656</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Pleasanton</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50 </t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>$33,233</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz C-Class C 300</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>17,729</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of North Scottsdale</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,074 </t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>$45,888</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2021 Mercedes-Benz AMG GLE 63 S-Model 4MATIC</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>16,399</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Mercedes Benz of Hoffman Estates</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,048 </t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>$142,999</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2021 Mercedes-Benz E-Class E 350 4MATIC</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>12,360</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Atlanta Northeast</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,732 </t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>$68,995</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz S-Class S 560 4MATIC</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>16,561</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Nanuet</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">233 </t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>$85,672</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLC 300 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>23,409</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Nanuet</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">233 </t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>$48,597</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2021 Mercedes-Benz G-Class G 550 4MATIC</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>3,179</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Monterey</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">58 </t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>$218,987</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLA 250 Base</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>30,468</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Sarasota</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,140 </t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>$33,995</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz C-Class C 300 4MATIC</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>24,790</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Stevens Creek</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,338 </t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>$35,895</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz E-Class E 300</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>13,741</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Silver Star Motors</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">672 </t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>$47,994</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLE 350 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>21,348</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz Of Daytona Beach</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,708 </t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>$68,989</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz AMG GLE 43 4MATIC Coupe</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>51,093</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Mercedes Benz of Hoffman Estates</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,048 </t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>$67,999</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz C-Class C 300</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>39,168</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Miami</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">821 </t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>$32,395</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2017 Mercedes-Benz E-Class E 300</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>44,270</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of South Charlotte</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,143 </t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>$43,904</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz GLE 350 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>16,927</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of White Plains</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,632 </t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>$47,845</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz E-Class E 450 4MATIC</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>28,556</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Plano</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,033 </t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>$61,077</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLC 300 4MATIC Coupe</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>13,714</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Silver Spring</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,508 </t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>$59,900</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLE 400 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>22,933</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Arcadia</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,095 </t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>$49,568</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLB 250 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>14,706</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Orange County NY</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">61 </t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>$43,495</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2016 Mercedes-Benz GLE-Class GLE 350 4MATIC</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>33,095</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Bobby Rahal Motorcar Company</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">104 </t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>$38,880</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLS 450 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>36,642</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Ontario</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,906 </t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>$65,988</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLC 300 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>21,857</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Los Angeles</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,419 </t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>$51,987</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz S-Class S 560 4MATIC</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>38,668</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Alexandria</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">991 </t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>$84,981</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz AMG GLE 43 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>13,227</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Morrie's Mercedes Benz of St. Paul</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20 </t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>$77,995</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLC 300 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>14,193</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Fredericksburg</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">266 </t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>$44,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLC 300 Base</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>19,366</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Plano</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,033 </t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>$46,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2021 Mercedes-Benz GLB 250 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>11,631</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Fletcher Jones Motorcars of Fremont</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,160 </t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>$51,988</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLC 300 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>35,942</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Tysons Corner</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">215 </t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>$43,882</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz CLA 250 Base</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>21,323</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>W.I. Simonson Inc.</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">768 </t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>$31,998</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz E-Class E 300</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>32,564</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Westwood</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">422 </t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>$43,944</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLS 450 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>34,377</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Fort Myers</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">816 </t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>$64,998</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz C-Class C 300</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>18,429</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Sugar Land</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55 </t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>$36,989</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz E-Class E 300</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>38,962</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Silver Spring</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,508 </t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>$43,900</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLA 250 4MATIC</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>12,109</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Hanover</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">363 </t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>$41,379</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLA 250 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>17,313</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Springfield</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">72 </t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>$36,991</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLA 250 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>16,464</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Plaza Motor Company</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50 </t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>$37,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz C-Class C 300</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>12,278</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of El Dorado Hills</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,945 </t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>$43,488</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2021 Mercedes-Benz G-Class G 550 4MATIC</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>4,778</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Monterey</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">58 </t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>$213,987</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLE 350 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>45,879</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of White Plains</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,632 </t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>$57,345</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLC 300 4MATIC</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>11,976</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Warwick</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">234 </t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>$43,495</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz CLA 250 Base</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>21,240</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Arcadia</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,095 </t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>$31,380</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz E-Class E 400</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>21,302</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Alexandria</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">991 </t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>$78,863</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz GLE 350 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>35,372</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Arlington</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2,229 </t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>$45,995</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2021 Mercedes-Benz GLE 350 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>6,654</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Autohaus on Edens</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,561 </t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>$67,540</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz AMG C 43 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>19,316</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Portsmouth</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">165 </t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>$56,900</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz E-Class E 450</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>11,532</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Gilbert</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">281 </t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>$65,791</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz C-Class C 300 4MATIC</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>35,582</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Westwood</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">422 </t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>$35,476</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLB 250 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>22,986</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Pleasanton</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50 </t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>$44,567</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz C-Class C 300</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>24,516</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Fort Lauderdale</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">869 </t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>$33,995</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLA 250 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>31,760</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Plaza Motor Company</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50 </t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>$34,500</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2018 Mercedes-Benz GLE 350 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>22,673</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Euro Motorcars Inc</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">560 </t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>$49,881</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLS 550 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>49,087</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Union</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">859 </t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>$69,995</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2017 Mercedes-Benz GLE 350 Base</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>42,645</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Atlanta Northeast</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,732 </t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>$43,514</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2020 Mercedes-Benz GLA 250 Base</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>17,606</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Plano</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,033 </t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>$36,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2021 Mercedes-Benz GLA 250 Base</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>14,851</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Hilton Head</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112 </t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>$45,824</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2019 Mercedes-Benz GLE 400 Base 4MATIC</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>39,933</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz of Laguna Niguel</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1,517 </t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>$47,988</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
